--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="info"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Amount</t>
   </si>
@@ -32,6 +32,15 @@
     <t>Reason</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>Initial amount</t>
   </si>
   <si>
@@ -42,6 +51,12 @@
   </si>
   <si>
     <t>Volatility</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t>df</t>
@@ -115,11 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -127,6 +145,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -452,75 +473,83 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9">
+        <v>250000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="B1" s="7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.0426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.0313</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -534,22 +563,22 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -558,65 +587,97 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="4">
+        <v>-50000</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="4">
+        <v>-20000</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="4">
+        <v>-2000</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -56,7 +56,7 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t>Fat</t>
   </si>
   <si>
     <t>df</t>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -593,7 +593,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -602,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="4">
-        <v>-50000</v>
+        <v>-60000</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="4">
-        <v>-20000</v>
+        <v>-4000</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>

--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Amount</t>
   </si>
@@ -35,10 +35,22 @@
     <t>m</t>
   </si>
   <si>
+    <t>Contribución</t>
+  </si>
+  <si>
     <t>o</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Casa/Dpto</t>
+  </si>
+  <si>
+    <t>Jubilación</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Initial amount</t>
@@ -130,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -145,6 +157,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -479,77 +494,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="9">
-        <v>250000</v>
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10">
+        <v>10000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9">
-        <v>25</v>
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.074</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11">
         <v>0.15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.0426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11">
         <v>0.0313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,11 +582,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -593,7 +608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -602,16 +617,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="4">
-        <v>-60000</v>
+        <v>-20000</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
@@ -619,22 +636,26 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="4">
-        <v>-4000</v>
+        <v>-150000</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="4">
@@ -644,19 +665,25 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="4"/>

--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Amount</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Contribución</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Casa/Dpto</t>
-  </si>
-  <si>
     <t>Jubilación</t>
   </si>
   <si>
@@ -68,7 +59,7 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Fat</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>df</t>
@@ -78,6 +69,12 @@
   </si>
   <si>
     <t>Inflation vol</t>
+  </si>
+  <si>
+    <t>Cartera</t>
+  </si>
+  <si>
+    <t>Moderado</t>
   </si>
 </sst>
 </file>
@@ -500,7 +497,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10">
         <v>10000</v>
@@ -508,7 +505,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10">
         <v>50</v>
@@ -516,7 +513,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>0.074</v>
@@ -524,7 +521,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11">
         <v>0.15</v>
@@ -532,15 +529,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -548,7 +545,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11">
         <v>0.0426</v>
@@ -556,15 +553,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11">
         <v>0.0313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -625,64 +626,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="4">
-        <v>-20000</v>
+        <v>-2500</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="4">
-        <v>-150000</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="4">
-        <v>-2000</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">

--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="info"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Amount</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Contribución</t>
-  </si>
-  <si>
-    <t>Jubilación</t>
   </si>
   <si>
     <t/>
@@ -487,7 +484,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -497,7 +494,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10">
         <v>10000</v>
@@ -505,15 +502,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="10">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="11">
         <v>0.074</v>
@@ -521,7 +518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
         <v>0.15</v>
@@ -529,15 +526,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -545,7 +542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11">
         <v>0.0426</v>
@@ -553,7 +550,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11">
         <v>0.0313</v>
@@ -561,10 +558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +576,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,54 +622,36 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="4">
-        <v>-2500</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="4"/>

--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="info"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Amount</t>
   </si>
@@ -38,7 +38,10 @@
     <t>Contribución</t>
   </si>
   <si>
-    <t/>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Universidad</t>
   </si>
   <si>
     <t>Initial amount</t>
@@ -56,7 +59,7 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t>Fat</t>
   </si>
   <si>
     <t>df</t>
@@ -71,7 +74,7 @@
     <t>Cartera</t>
   </si>
   <si>
-    <t>Moderado</t>
+    <t>Conservadora</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -151,9 +154,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -484,84 +484,84 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9">
         <v>10000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="10">
-        <v>40</v>
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.074</v>
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.06</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.15</v>
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.0426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.0313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -576,15 +576,15 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -606,7 +606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -615,21 +615,27 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4">
+        <v>-56700</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">

--- a/montecarlo/data.xlsx
+++ b/montecarlo/data.xlsx
@@ -41,7 +41,7 @@
     <t>o</t>
   </si>
   <si>
-    <t>Universidad</t>
+    <t>Casa</t>
   </si>
   <si>
     <t>Initial amount</t>
@@ -74,7 +74,7 @@
     <t>Cartera</t>
   </si>
   <si>
-    <t>Conservadora</t>
+    <t>Moderado</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -505,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="10">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -521,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="10">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -606,7 +606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
@@ -623,13 +623,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="4">
-        <v>-56700</v>
+        <v>-90000</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
